--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.0137293569575</v>
+        <v>19.25070633333333</v>
       </c>
       <c r="H2">
-        <v>19.0137293569575</v>
+        <v>57.752119</v>
       </c>
       <c r="I2">
-        <v>0.0893100063645911</v>
+        <v>0.08333751665101854</v>
       </c>
       <c r="J2">
-        <v>0.0893100063645911</v>
+        <v>0.08333751665101856</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.9386676873139</v>
+        <v>12.42467</v>
       </c>
       <c r="N2">
-        <v>11.9386676873139</v>
+        <v>37.27401</v>
       </c>
       <c r="O2">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="P2">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="Q2">
-        <v>226.9985962892402</v>
+        <v>239.1836734585766</v>
       </c>
       <c r="R2">
-        <v>226.9985962892402</v>
+        <v>2152.65306112719</v>
       </c>
       <c r="S2">
-        <v>0.02943842483077544</v>
+        <v>0.02772645299245979</v>
       </c>
       <c r="T2">
-        <v>0.02943842483077544</v>
+        <v>0.02772645299245979</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.0137293569575</v>
+        <v>19.25070633333333</v>
       </c>
       <c r="H3">
-        <v>19.0137293569575</v>
+        <v>57.752119</v>
       </c>
       <c r="I3">
-        <v>0.0893100063645911</v>
+        <v>0.08333751665101854</v>
       </c>
       <c r="J3">
-        <v>0.0893100063645911</v>
+        <v>0.08333751665101856</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.4309598417779</v>
+        <v>12.45773566666667</v>
       </c>
       <c r="N3">
-        <v>12.4309598417779</v>
+        <v>37.373207</v>
       </c>
       <c r="O3">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="P3">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="Q3">
-        <v>236.3589060787722</v>
+        <v>239.8202108972926</v>
       </c>
       <c r="R3">
-        <v>236.3589060787722</v>
+        <v>2158.381898075633</v>
       </c>
       <c r="S3">
-        <v>0.03065232121884298</v>
+        <v>0.02780024116168261</v>
       </c>
       <c r="T3">
-        <v>0.03065232121884298</v>
+        <v>0.02780024116168261</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.0137293569575</v>
+        <v>19.25070633333333</v>
       </c>
       <c r="H4">
-        <v>19.0137293569575</v>
+        <v>57.752119</v>
       </c>
       <c r="I4">
-        <v>0.0893100063645911</v>
+        <v>0.08333751665101854</v>
       </c>
       <c r="J4">
-        <v>0.0893100063645911</v>
+        <v>0.08333751665101856</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.53551767599529</v>
+        <v>3.546802333333333</v>
       </c>
       <c r="N4">
-        <v>3.53551767599529</v>
+        <v>10.640407</v>
       </c>
       <c r="O4">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730705</v>
       </c>
       <c r="P4">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730702</v>
       </c>
       <c r="Q4">
-        <v>67.22337622811381</v>
+        <v>68.27845014138144</v>
       </c>
       <c r="R4">
-        <v>67.22337622811381</v>
+        <v>614.506051272433</v>
       </c>
       <c r="S4">
-        <v>0.00871789667562833</v>
+        <v>0.007914918317244109</v>
       </c>
       <c r="T4">
-        <v>0.00871789667562833</v>
+        <v>0.007914918317244108</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.0137293569575</v>
+        <v>19.25070633333333</v>
       </c>
       <c r="H5">
-        <v>19.0137293569575</v>
+        <v>57.752119</v>
       </c>
       <c r="I5">
-        <v>0.0893100063645911</v>
+        <v>0.08333751665101854</v>
       </c>
       <c r="J5">
-        <v>0.0893100063645911</v>
+        <v>0.08333751665101856</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.66235533921757</v>
+        <v>2.801381000000001</v>
       </c>
       <c r="N5">
-        <v>2.66235533921757</v>
+        <v>8.404143000000001</v>
       </c>
       <c r="O5">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166073</v>
       </c>
       <c r="P5">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166071</v>
       </c>
       <c r="Q5">
-        <v>50.62130387193366</v>
+        <v>53.92856295877968</v>
       </c>
       <c r="R5">
-        <v>50.62130387193366</v>
+        <v>485.3570666290171</v>
       </c>
       <c r="S5">
-        <v>0.006564848740169927</v>
+        <v>0.006251462502462441</v>
       </c>
       <c r="T5">
-        <v>0.006564848740169927</v>
+        <v>0.00625146250246244</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.0137293569575</v>
+        <v>19.25070633333333</v>
       </c>
       <c r="H6">
-        <v>19.0137293569575</v>
+        <v>57.752119</v>
       </c>
       <c r="I6">
-        <v>0.0893100063645911</v>
+        <v>0.08333751665101854</v>
       </c>
       <c r="J6">
-        <v>0.0893100063645911</v>
+        <v>0.08333751665101856</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.6519131392724</v>
+        <v>6.114294</v>
       </c>
       <c r="N6">
-        <v>5.6519131392724</v>
+        <v>18.342882</v>
       </c>
       <c r="O6">
-        <v>0.1560465110962065</v>
+        <v>0.1637250811577051</v>
       </c>
       <c r="P6">
-        <v>0.1560465110962065</v>
+        <v>0.1637250811577051</v>
       </c>
       <c r="Q6">
-        <v>107.4639467791575</v>
+        <v>117.704478229662</v>
       </c>
       <c r="R6">
-        <v>107.4639467791575</v>
+        <v>1059.340304066958</v>
       </c>
       <c r="S6">
-        <v>0.01393651489917444</v>
+        <v>0.01364444167716961</v>
       </c>
       <c r="T6">
-        <v>0.01393651489917444</v>
+        <v>0.01364444167716961</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>136.290755219625</v>
+        <v>136.87116</v>
       </c>
       <c r="H7">
-        <v>136.290755219625</v>
+        <v>410.61348</v>
       </c>
       <c r="I7">
-        <v>0.6401757376253814</v>
+        <v>0.5925238470753371</v>
       </c>
       <c r="J7">
-        <v>0.6401757376253814</v>
+        <v>0.5925238470753372</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.9386676873139</v>
+        <v>12.42467</v>
       </c>
       <c r="N7">
-        <v>11.9386676873139</v>
+        <v>37.27401</v>
       </c>
       <c r="O7">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="P7">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="Q7">
-        <v>1627.130035420145</v>
+        <v>1700.5789955172</v>
       </c>
       <c r="R7">
-        <v>1627.130035420145</v>
+        <v>15305.2109596548</v>
       </c>
       <c r="S7">
-        <v>0.2110151605368469</v>
+        <v>0.1971331190685891</v>
       </c>
       <c r="T7">
-        <v>0.2110151605368469</v>
+        <v>0.1971331190685891</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>136.290755219625</v>
+        <v>136.87116</v>
       </c>
       <c r="H8">
-        <v>136.290755219625</v>
+        <v>410.61348</v>
       </c>
       <c r="I8">
-        <v>0.6401757376253814</v>
+        <v>0.5925238470753371</v>
       </c>
       <c r="J8">
-        <v>0.6401757376253814</v>
+        <v>0.5925238470753372</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.4309598417779</v>
+        <v>12.45773566666667</v>
       </c>
       <c r="N8">
-        <v>12.4309598417779</v>
+        <v>37.373207</v>
       </c>
       <c r="O8">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="P8">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="Q8">
-        <v>1694.22490494074</v>
+        <v>1705.10473167004</v>
       </c>
       <c r="R8">
-        <v>1694.22490494074</v>
+        <v>15345.94258503036</v>
       </c>
       <c r="S8">
-        <v>0.2197163917567791</v>
+        <v>0.1976577477310874</v>
       </c>
       <c r="T8">
-        <v>0.2197163917567791</v>
+        <v>0.1976577477310874</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>136.290755219625</v>
+        <v>136.87116</v>
       </c>
       <c r="H9">
-        <v>136.290755219625</v>
+        <v>410.61348</v>
       </c>
       <c r="I9">
-        <v>0.6401757376253814</v>
+        <v>0.5925238470753371</v>
       </c>
       <c r="J9">
-        <v>0.6401757376253814</v>
+        <v>0.5925238470753372</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.53551767599529</v>
+        <v>3.546802333333333</v>
       </c>
       <c r="N9">
-        <v>3.53551767599529</v>
+        <v>10.640407</v>
       </c>
       <c r="O9">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730705</v>
       </c>
       <c r="P9">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730702</v>
       </c>
       <c r="Q9">
-        <v>481.8583741537315</v>
+        <v>485.45494965404</v>
       </c>
       <c r="R9">
-        <v>481.8583741537315</v>
+        <v>4369.094546886359</v>
       </c>
       <c r="S9">
-        <v>0.06249004072487593</v>
+        <v>0.05627450923764975</v>
       </c>
       <c r="T9">
-        <v>0.06249004072487593</v>
+        <v>0.05627450923764975</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>136.290755219625</v>
+        <v>136.87116</v>
       </c>
       <c r="H10">
-        <v>136.290755219625</v>
+        <v>410.61348</v>
       </c>
       <c r="I10">
-        <v>0.6401757376253814</v>
+        <v>0.5925238470753371</v>
       </c>
       <c r="J10">
-        <v>0.6401757376253814</v>
+        <v>0.5925238470753372</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.66235533921757</v>
+        <v>2.801381000000001</v>
       </c>
       <c r="N10">
-        <v>2.66235533921757</v>
+        <v>8.404143000000001</v>
       </c>
       <c r="O10">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166073</v>
       </c>
       <c r="P10">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166071</v>
       </c>
       <c r="Q10">
-        <v>362.8544198449635</v>
+        <v>383.4282670719601</v>
       </c>
       <c r="R10">
-        <v>362.8544198449635</v>
+        <v>3450.854403647641</v>
       </c>
       <c r="S10">
-        <v>0.04705695426199828</v>
+        <v>0.04444745608772574</v>
       </c>
       <c r="T10">
-        <v>0.04705695426199828</v>
+        <v>0.04444745608772574</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>136.290755219625</v>
+        <v>136.87116</v>
       </c>
       <c r="H11">
-        <v>136.290755219625</v>
+        <v>410.61348</v>
       </c>
       <c r="I11">
-        <v>0.6401757376253814</v>
+        <v>0.5925238470753371</v>
       </c>
       <c r="J11">
-        <v>0.6401757376253814</v>
+        <v>0.5925238470753372</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.6519131392724</v>
+        <v>6.114294</v>
       </c>
       <c r="N11">
-        <v>5.6519131392724</v>
+        <v>18.342882</v>
       </c>
       <c r="O11">
-        <v>0.1560465110962065</v>
+        <v>0.1637250811577051</v>
       </c>
       <c r="P11">
-        <v>0.1560465110962065</v>
+        <v>0.1637250811577051</v>
       </c>
       <c r="Q11">
-        <v>770.303510187157</v>
+        <v>836.87051236104</v>
       </c>
       <c r="R11">
-        <v>770.303510187157</v>
+        <v>7531.834611249359</v>
       </c>
       <c r="S11">
-        <v>0.09989719034488125</v>
+        <v>0.09701101495028522</v>
       </c>
       <c r="T11">
-        <v>0.09989719034488125</v>
+        <v>0.09701101495028522</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.0313862729092</v>
+        <v>38.62255866666667</v>
       </c>
       <c r="H12">
-        <v>38.0313862729092</v>
+        <v>115.867676</v>
       </c>
       <c r="I12">
-        <v>0.1786384609942324</v>
+        <v>0.1671994819439409</v>
       </c>
       <c r="J12">
-        <v>0.1786384609942324</v>
+        <v>0.1671994819439409</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.9386676873139</v>
+        <v>12.42467</v>
       </c>
       <c r="N12">
-        <v>11.9386676873139</v>
+        <v>37.27401</v>
       </c>
       <c r="O12">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="P12">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="Q12">
-        <v>454.0440824001345</v>
+        <v>479.8725459889733</v>
       </c>
       <c r="R12">
-        <v>454.0440824001345</v>
+        <v>4318.85291390076</v>
       </c>
       <c r="S12">
-        <v>0.05888293059118064</v>
+        <v>0.05562739043323348</v>
       </c>
       <c r="T12">
-        <v>0.05888293059118064</v>
+        <v>0.05562739043323348</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.0313862729092</v>
+        <v>38.62255866666667</v>
       </c>
       <c r="H13">
-        <v>38.0313862729092</v>
+        <v>115.867676</v>
       </c>
       <c r="I13">
-        <v>0.1786384609942324</v>
+        <v>0.1671994819439409</v>
       </c>
       <c r="J13">
-        <v>0.1786384609942324</v>
+        <v>0.1671994819439409</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.4309598417779</v>
+        <v>12.45773566666667</v>
       </c>
       <c r="N13">
-        <v>12.4309598417779</v>
+        <v>37.373207</v>
       </c>
       <c r="O13">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="P13">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="Q13">
-        <v>472.7666354856776</v>
+        <v>481.1496266396591</v>
       </c>
       <c r="R13">
-        <v>472.7666354856776</v>
+        <v>4330.346639756932</v>
       </c>
       <c r="S13">
-        <v>0.06131097411505634</v>
+        <v>0.05577543112563029</v>
       </c>
       <c r="T13">
-        <v>0.06131097411505634</v>
+        <v>0.05577543112563028</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>38.0313862729092</v>
+        <v>38.62255866666667</v>
       </c>
       <c r="H14">
-        <v>38.0313862729092</v>
+        <v>115.867676</v>
       </c>
       <c r="I14">
-        <v>0.1786384609942324</v>
+        <v>0.1671994819439409</v>
       </c>
       <c r="J14">
-        <v>0.1786384609942324</v>
+        <v>0.1671994819439409</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.53551767599529</v>
+        <v>3.546802333333333</v>
       </c>
       <c r="N14">
-        <v>3.53551767599529</v>
+        <v>10.640407</v>
       </c>
       <c r="O14">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730705</v>
       </c>
       <c r="P14">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730702</v>
       </c>
       <c r="Q14">
-        <v>134.4606384104751</v>
+        <v>136.9865811982369</v>
       </c>
       <c r="R14">
-        <v>134.4606384104751</v>
+        <v>1232.879230784132</v>
       </c>
       <c r="S14">
-        <v>0.01743759415807662</v>
+        <v>0.01587964575202697</v>
       </c>
       <c r="T14">
-        <v>0.01743759415807662</v>
+        <v>0.01587964575202696</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>38.0313862729092</v>
+        <v>38.62255866666667</v>
       </c>
       <c r="H15">
-        <v>38.0313862729092</v>
+        <v>115.867676</v>
       </c>
       <c r="I15">
-        <v>0.1786384609942324</v>
+        <v>0.1671994819439409</v>
       </c>
       <c r="J15">
-        <v>0.1786384609942324</v>
+        <v>0.1671994819439409</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.66235533921757</v>
+        <v>2.801381000000001</v>
       </c>
       <c r="N15">
-        <v>2.66235533921757</v>
+        <v>8.404143000000001</v>
       </c>
       <c r="O15">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166073</v>
       </c>
       <c r="P15">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166071</v>
       </c>
       <c r="Q15">
-        <v>101.2530643015256</v>
+        <v>108.1965020201854</v>
       </c>
       <c r="R15">
-        <v>101.2530643015256</v>
+        <v>973.7685181816681</v>
       </c>
       <c r="S15">
-        <v>0.01313105354417304</v>
+        <v>0.01254226588225217</v>
       </c>
       <c r="T15">
-        <v>0.01313105354417304</v>
+        <v>0.01254226588225217</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>38.0313862729092</v>
+        <v>38.62255866666667</v>
       </c>
       <c r="H16">
-        <v>38.0313862729092</v>
+        <v>115.867676</v>
       </c>
       <c r="I16">
-        <v>0.1786384609942324</v>
+        <v>0.1671994819439409</v>
       </c>
       <c r="J16">
-        <v>0.1786384609942324</v>
+        <v>0.1671994819439409</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.6519131392724</v>
+        <v>6.114294</v>
       </c>
       <c r="N16">
-        <v>5.6519131392724</v>
+        <v>18.342882</v>
       </c>
       <c r="O16">
-        <v>0.1560465110962065</v>
+        <v>0.1637250811577051</v>
       </c>
       <c r="P16">
-        <v>0.1560465110962065</v>
+        <v>0.1637250811577051</v>
       </c>
       <c r="Q16">
-        <v>214.9500917805995</v>
+        <v>236.149678720248</v>
       </c>
       <c r="R16">
-        <v>214.9500917805995</v>
+        <v>2125.347108482232</v>
       </c>
       <c r="S16">
-        <v>0.02787590858574573</v>
+        <v>0.02737474875079796</v>
       </c>
       <c r="T16">
-        <v>0.02787590858574573</v>
+        <v>0.02737474875079796</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.5339428069114</v>
+        <v>35.132386</v>
       </c>
       <c r="H17">
-        <v>18.5339428069114</v>
+        <v>105.397158</v>
       </c>
       <c r="I17">
-        <v>0.08705638536085136</v>
+        <v>0.1520903052889719</v>
       </c>
       <c r="J17">
-        <v>0.08705638536085136</v>
+        <v>0.1520903052889719</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.9386676873139</v>
+        <v>12.42467</v>
       </c>
       <c r="N17">
-        <v>11.9386676873139</v>
+        <v>37.27401</v>
       </c>
       <c r="O17">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="P17">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="Q17">
-        <v>221.270584107397</v>
+        <v>436.50830236262</v>
       </c>
       <c r="R17">
-        <v>221.270584107397</v>
+        <v>3928.57472126358</v>
       </c>
       <c r="S17">
-        <v>0.02869558474805485</v>
+        <v>0.05060055626401963</v>
       </c>
       <c r="T17">
-        <v>0.02869558474805485</v>
+        <v>0.05060055626401964</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.5339428069114</v>
+        <v>35.132386</v>
       </c>
       <c r="H18">
-        <v>18.5339428069114</v>
+        <v>105.397158</v>
       </c>
       <c r="I18">
-        <v>0.08705638536085136</v>
+        <v>0.1520903052889719</v>
       </c>
       <c r="J18">
-        <v>0.08705638536085136</v>
+        <v>0.1520903052889719</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>12.4309598417779</v>
+        <v>12.45773566666667</v>
       </c>
       <c r="N18">
-        <v>12.4309598417779</v>
+        <v>37.373207</v>
       </c>
       <c r="O18">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="P18">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="Q18">
-        <v>230.394698742524</v>
+        <v>437.6699781273007</v>
       </c>
       <c r="R18">
-        <v>230.394698742524</v>
+        <v>3939.029803145706</v>
       </c>
       <c r="S18">
-        <v>0.02987885005112005</v>
+        <v>0.05073521908617701</v>
       </c>
       <c r="T18">
-        <v>0.02987885005112005</v>
+        <v>0.05073521908617701</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.5339428069114</v>
+        <v>35.132386</v>
       </c>
       <c r="H19">
-        <v>18.5339428069114</v>
+        <v>105.397158</v>
       </c>
       <c r="I19">
-        <v>0.08705638536085136</v>
+        <v>0.1520903052889719</v>
       </c>
       <c r="J19">
-        <v>0.08705638536085136</v>
+        <v>0.1520903052889719</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.53551767599529</v>
+        <v>3.546802333333333</v>
       </c>
       <c r="N19">
-        <v>3.53551767599529</v>
+        <v>10.640407</v>
       </c>
       <c r="O19">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730705</v>
       </c>
       <c r="P19">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730702</v>
       </c>
       <c r="Q19">
-        <v>65.52708239972102</v>
+        <v>124.6076286403674</v>
       </c>
       <c r="R19">
-        <v>65.52708239972102</v>
+        <v>1121.468657763306</v>
       </c>
       <c r="S19">
-        <v>0.008497911974514051</v>
+        <v>0.01444466299911301</v>
       </c>
       <c r="T19">
-        <v>0.008497911974514051</v>
+        <v>0.01444466299911301</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.5339428069114</v>
+        <v>35.132386</v>
       </c>
       <c r="H20">
-        <v>18.5339428069114</v>
+        <v>105.397158</v>
       </c>
       <c r="I20">
-        <v>0.08705638536085136</v>
+        <v>0.1520903052889719</v>
       </c>
       <c r="J20">
-        <v>0.08705638536085136</v>
+        <v>0.1520903052889719</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.66235533921757</v>
+        <v>2.801381000000001</v>
       </c>
       <c r="N20">
-        <v>2.66235533921757</v>
+        <v>8.404143000000001</v>
       </c>
       <c r="O20">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166073</v>
       </c>
       <c r="P20">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166071</v>
       </c>
       <c r="Q20">
-        <v>49.34394158873364</v>
+        <v>98.41919862506603</v>
       </c>
       <c r="R20">
-        <v>49.34394158873364</v>
+        <v>885.7727876255942</v>
       </c>
       <c r="S20">
-        <v>0.006399193382954691</v>
+        <v>0.01140886936292518</v>
       </c>
       <c r="T20">
-        <v>0.006399193382954691</v>
+        <v>0.01140886936292518</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.5339428069114</v>
+        <v>35.132386</v>
       </c>
       <c r="H21">
-        <v>18.5339428069114</v>
+        <v>105.397158</v>
       </c>
       <c r="I21">
-        <v>0.08705638536085136</v>
+        <v>0.1520903052889719</v>
       </c>
       <c r="J21">
-        <v>0.08705638536085136</v>
+        <v>0.1520903052889719</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.6519131392724</v>
+        <v>6.114294</v>
       </c>
       <c r="N21">
-        <v>5.6519131392724</v>
+        <v>18.342882</v>
       </c>
       <c r="O21">
-        <v>0.1560465110962065</v>
+        <v>0.1637250811577051</v>
       </c>
       <c r="P21">
-        <v>0.1560465110962065</v>
+        <v>0.1637250811577051</v>
       </c>
       <c r="Q21">
-        <v>104.7522348729057</v>
+        <v>214.809736925484</v>
       </c>
       <c r="R21">
-        <v>104.7522348729057</v>
+        <v>1933.287632329356</v>
       </c>
       <c r="S21">
-        <v>0.01358484520420772</v>
+        <v>0.02490099757673707</v>
       </c>
       <c r="T21">
-        <v>0.01358484520420772</v>
+        <v>0.02490099757673707</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.02603229547793</v>
+        <v>1.120069</v>
       </c>
       <c r="H22">
-        <v>1.02603229547793</v>
+        <v>3.360207</v>
       </c>
       <c r="I22">
-        <v>0.004819409654943831</v>
+        <v>0.004848849040731632</v>
       </c>
       <c r="J22">
-        <v>0.004819409654943831</v>
+        <v>0.004848849040731633</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.9386676873139</v>
+        <v>12.42467</v>
       </c>
       <c r="N22">
-        <v>11.9386676873139</v>
+        <v>37.27401</v>
       </c>
       <c r="O22">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="P22">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="Q22">
-        <v>12.24945861216287</v>
+        <v>13.91648770223</v>
       </c>
       <c r="R22">
-        <v>12.24945861216287</v>
+        <v>125.24838932007</v>
       </c>
       <c r="S22">
-        <v>0.00158857707698056</v>
+        <v>0.001613215636822509</v>
       </c>
       <c r="T22">
-        <v>0.00158857707698056</v>
+        <v>0.001613215636822509</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.02603229547793</v>
+        <v>1.120069</v>
       </c>
       <c r="H23">
-        <v>1.02603229547793</v>
+        <v>3.360207</v>
       </c>
       <c r="I23">
-        <v>0.004819409654943831</v>
+        <v>0.004848849040731632</v>
       </c>
       <c r="J23">
-        <v>0.004819409654943831</v>
+        <v>0.004848849040731633</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>12.4309598417779</v>
+        <v>12.45773566666667</v>
       </c>
       <c r="N23">
-        <v>12.4309598417779</v>
+        <v>37.373207</v>
       </c>
       <c r="O23">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="P23">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="Q23">
-        <v>12.75456626145334</v>
+        <v>13.95352353042767</v>
       </c>
       <c r="R23">
-        <v>12.75456626145334</v>
+        <v>125.581711773849</v>
       </c>
       <c r="S23">
-        <v>0.001654082211409412</v>
+        <v>0.001617508873625469</v>
       </c>
       <c r="T23">
-        <v>0.001654082211409412</v>
+        <v>0.001617508873625469</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.02603229547793</v>
+        <v>1.120069</v>
       </c>
       <c r="H24">
-        <v>1.02603229547793</v>
+        <v>3.360207</v>
       </c>
       <c r="I24">
-        <v>0.004819409654943831</v>
+        <v>0.004848849040731632</v>
       </c>
       <c r="J24">
-        <v>0.004819409654943831</v>
+        <v>0.004848849040731633</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.53551767599529</v>
+        <v>3.546802333333333</v>
       </c>
       <c r="N24">
-        <v>3.53551767599529</v>
+        <v>10.640407</v>
       </c>
       <c r="O24">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730705</v>
       </c>
       <c r="P24">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730702</v>
       </c>
       <c r="Q24">
-        <v>3.627555316804244</v>
+        <v>3.972663342694333</v>
       </c>
       <c r="R24">
-        <v>3.627555316804244</v>
+        <v>35.753970084249</v>
       </c>
       <c r="S24">
-        <v>0.0004704412990164528</v>
+        <v>0.0004605158112732085</v>
       </c>
       <c r="T24">
-        <v>0.0004704412990164528</v>
+        <v>0.0004605158112732084</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.02603229547793</v>
+        <v>1.120069</v>
       </c>
       <c r="H25">
-        <v>1.02603229547793</v>
+        <v>3.360207</v>
       </c>
       <c r="I25">
-        <v>0.004819409654943831</v>
+        <v>0.004848849040731632</v>
       </c>
       <c r="J25">
-        <v>0.004819409654943831</v>
+        <v>0.004848849040731633</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.66235533921757</v>
+        <v>2.801381000000001</v>
       </c>
       <c r="N25">
-        <v>2.66235533921757</v>
+        <v>8.404143000000001</v>
       </c>
       <c r="O25">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166073</v>
       </c>
       <c r="P25">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166071</v>
       </c>
       <c r="Q25">
-        <v>2.731662560075326</v>
+        <v>3.137740015289001</v>
       </c>
       <c r="R25">
-        <v>2.731662560075326</v>
+        <v>28.239660137601</v>
       </c>
       <c r="S25">
-        <v>0.0003542570053400494</v>
+        <v>0.0003637305162951997</v>
       </c>
       <c r="T25">
-        <v>0.0003542570053400494</v>
+        <v>0.0003637305162951996</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.02603229547793</v>
+        <v>1.120069</v>
       </c>
       <c r="H26">
-        <v>1.02603229547793</v>
+        <v>3.360207</v>
       </c>
       <c r="I26">
-        <v>0.004819409654943831</v>
+        <v>0.004848849040731632</v>
       </c>
       <c r="J26">
-        <v>0.004819409654943831</v>
+        <v>0.004848849040731633</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.6519131392724</v>
+        <v>6.114294</v>
       </c>
       <c r="N26">
-        <v>5.6519131392724</v>
+        <v>18.342882</v>
       </c>
       <c r="O26">
-        <v>0.1560465110962065</v>
+        <v>0.1637250811577051</v>
       </c>
       <c r="P26">
-        <v>0.1560465110962065</v>
+        <v>0.1637250811577051</v>
       </c>
       <c r="Q26">
-        <v>5.799045412129534</v>
+        <v>6.848431166286</v>
       </c>
       <c r="R26">
-        <v>5.799045412129534</v>
+        <v>61.635880496574</v>
       </c>
       <c r="S26">
-        <v>0.0007520520621973572</v>
+        <v>0.000793878202715247</v>
       </c>
       <c r="T26">
-        <v>0.0007520520621973572</v>
+        <v>0.000793878202715247</v>
       </c>
     </row>
   </sheetData>
